--- a/biology/Zoologie/Cecidonius/Cecidonius.xlsx
+++ b/biology/Zoologie/Cecidonius/Cecidonius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cecidonius est un genre monotypique de lépidoptères (papillons) de la famille des Cecidosidae, uniquement représenté par l'espèce Cecidonius pampeanus.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite en 2017 par l'entomologiste brésilien Gilson Rudinei Pires Moreira (d) et l'entomologiste chilienne Gislene Lopes Gonçalves (d)[1]. Son épithète spécifique, pampeanus, fait référence à la pampa où elle a été découverte[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite en 2017 par l'entomologiste brésilien Gilson Rudinei Pires Moreira (d) et l'entomologiste chilienne Gislene Lopes Gonçalves (d). Son épithète spécifique, pampeanus, fait référence à la pampa où elle a été découverte.
 			Larve de Cecidonius pampeanus.
 			Pupe de Cecidonius pampeanus.
 </t>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">[Moreira et al. 2017] (en) Gilson Rudinei Pires Moreira, Rodrigo P. Eltz, Ramoim Beledelli Pase, Gabriela Thomaz da Silva, Sérgio Augusto de Loreto Bordignon, Wolfram Mey et Gislene Lopes Gonçalves, « Cecidonius pampeanus, gen. et sp. n.: an overlooked and rare, new gall-inducing micromoth associated with Schinus in southern Brazil (Lepidoptera, Cecidosidae) », ZooKeys, Sofia, Pensoft Publishers (d), vol. 695, no 695,‎ 4 septembre 2017, p. 37-74 (ISSN 1313-2989 et 1313-2970, OCLC 248547717, PMID 29134006, PMCID 5673834, DOI 10.3897/ZOOKEYS.695.13320, lire en ligne). </t>
         </is>
